--- a/data_templates/FMECA_Sample.xlsx
+++ b/data_templates/FMECA_Sample.xlsx
@@ -14,36 +14,360 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Asset</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="118">
+  <si>
+    <t>Equipment ID</t>
+  </si>
+  <si>
+    <t>Failure Mode ID</t>
   </si>
   <si>
     <t>Failure Mode</t>
   </si>
   <si>
-    <t>Effect</t>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Recommended Action</t>
   </si>
   <si>
     <t>Criticality</t>
   </si>
   <si>
-    <t>Recommended Action</t>
-  </si>
-  <si>
-    <t>Hoist</t>
-  </si>
-  <si>
-    <t>Brake failure</t>
-  </si>
-  <si>
-    <t>Loss of lifting control</t>
+    <t>EQ001</t>
+  </si>
+  <si>
+    <t>EQ002</t>
+  </si>
+  <si>
+    <t>EQ003</t>
+  </si>
+  <si>
+    <t>EQ004</t>
+  </si>
+  <si>
+    <t>EQ005</t>
+  </si>
+  <si>
+    <t>EQ006</t>
+  </si>
+  <si>
+    <t>EQ007</t>
+  </si>
+  <si>
+    <t>EQ008</t>
+  </si>
+  <si>
+    <t>EQ009</t>
+  </si>
+  <si>
+    <t>EQ010</t>
+  </si>
+  <si>
+    <t>EQ011</t>
+  </si>
+  <si>
+    <t>EQ012</t>
+  </si>
+  <si>
+    <t>EQ013</t>
+  </si>
+  <si>
+    <t>EQ014</t>
+  </si>
+  <si>
+    <t>EQ015</t>
+  </si>
+  <si>
+    <t>EQ016</t>
+  </si>
+  <si>
+    <t>EQ017</t>
+  </si>
+  <si>
+    <t>EQ018</t>
+  </si>
+  <si>
+    <t>EQ019</t>
+  </si>
+  <si>
+    <t>EQ020</t>
+  </si>
+  <si>
+    <t>EQ021</t>
+  </si>
+  <si>
+    <t>EQ022</t>
+  </si>
+  <si>
+    <t>EQ023</t>
+  </si>
+  <si>
+    <t>EQ024</t>
+  </si>
+  <si>
+    <t>EQ025</t>
+  </si>
+  <si>
+    <t>EQ026</t>
+  </si>
+  <si>
+    <t>EQ027</t>
+  </si>
+  <si>
+    <t>EQ028</t>
+  </si>
+  <si>
+    <t>EQ029</t>
+  </si>
+  <si>
+    <t>EQ030</t>
+  </si>
+  <si>
+    <t>EQ031</t>
+  </si>
+  <si>
+    <t>EQ032</t>
+  </si>
+  <si>
+    <t>EQ033</t>
+  </si>
+  <si>
+    <t>EQ034</t>
+  </si>
+  <si>
+    <t>EQ035</t>
+  </si>
+  <si>
+    <t>EQ036</t>
+  </si>
+  <si>
+    <t>EQ037</t>
+  </si>
+  <si>
+    <t>EQ038</t>
+  </si>
+  <si>
+    <t>EQ039</t>
+  </si>
+  <si>
+    <t>EQ040</t>
+  </si>
+  <si>
+    <t>EQ041</t>
+  </si>
+  <si>
+    <t>EQ042</t>
+  </si>
+  <si>
+    <t>EQ043</t>
+  </si>
+  <si>
+    <t>EQ044</t>
+  </si>
+  <si>
+    <t>EQ045</t>
+  </si>
+  <si>
+    <t>EQ046</t>
+  </si>
+  <si>
+    <t>EQ047</t>
+  </si>
+  <si>
+    <t>EQ048</t>
+  </si>
+  <si>
+    <t>EQ049</t>
+  </si>
+  <si>
+    <t>EQ050</t>
+  </si>
+  <si>
+    <t>FAIL-001</t>
+  </si>
+  <si>
+    <t>FAIL-002</t>
+  </si>
+  <si>
+    <t>FAIL-003</t>
+  </si>
+  <si>
+    <t>FAIL-004</t>
+  </si>
+  <si>
+    <t>FAIL-005</t>
+  </si>
+  <si>
+    <t>FAIL-006</t>
+  </si>
+  <si>
+    <t>FAIL-007</t>
+  </si>
+  <si>
+    <t>FAIL-008</t>
+  </si>
+  <si>
+    <t>FAIL-009</t>
+  </si>
+  <si>
+    <t>FAIL-010</t>
+  </si>
+  <si>
+    <t>FAIL-011</t>
+  </si>
+  <si>
+    <t>FAIL-012</t>
+  </si>
+  <si>
+    <t>FAIL-013</t>
+  </si>
+  <si>
+    <t>FAIL-014</t>
+  </si>
+  <si>
+    <t>FAIL-015</t>
+  </si>
+  <si>
+    <t>FAIL-016</t>
+  </si>
+  <si>
+    <t>FAIL-017</t>
+  </si>
+  <si>
+    <t>FAIL-018</t>
+  </si>
+  <si>
+    <t>FAIL-019</t>
+  </si>
+  <si>
+    <t>FAIL-020</t>
+  </si>
+  <si>
+    <t>FAIL-021</t>
+  </si>
+  <si>
+    <t>FAIL-022</t>
+  </si>
+  <si>
+    <t>FAIL-023</t>
+  </si>
+  <si>
+    <t>FAIL-024</t>
+  </si>
+  <si>
+    <t>FAIL-025</t>
+  </si>
+  <si>
+    <t>FAIL-026</t>
+  </si>
+  <si>
+    <t>FAIL-027</t>
+  </si>
+  <si>
+    <t>FAIL-028</t>
+  </si>
+  <si>
+    <t>FAIL-029</t>
+  </si>
+  <si>
+    <t>FAIL-030</t>
+  </si>
+  <si>
+    <t>FAIL-031</t>
+  </si>
+  <si>
+    <t>FAIL-032</t>
+  </si>
+  <si>
+    <t>FAIL-033</t>
+  </si>
+  <si>
+    <t>FAIL-034</t>
+  </si>
+  <si>
+    <t>FAIL-035</t>
+  </si>
+  <si>
+    <t>FAIL-036</t>
+  </si>
+  <si>
+    <t>FAIL-037</t>
+  </si>
+  <si>
+    <t>FAIL-038</t>
+  </si>
+  <si>
+    <t>FAIL-039</t>
+  </si>
+  <si>
+    <t>FAIL-040</t>
+  </si>
+  <si>
+    <t>FAIL-041</t>
+  </si>
+  <si>
+    <t>FAIL-042</t>
+  </si>
+  <si>
+    <t>FAIL-043</t>
+  </si>
+  <si>
+    <t>FAIL-044</t>
+  </si>
+  <si>
+    <t>FAIL-045</t>
+  </si>
+  <si>
+    <t>FAIL-046</t>
+  </si>
+  <si>
+    <t>FAIL-047</t>
+  </si>
+  <si>
+    <t>FAIL-048</t>
+  </si>
+  <si>
+    <t>FAIL-049</t>
+  </si>
+  <si>
+    <t>FAIL-050</t>
+  </si>
+  <si>
+    <t>MOTOR Failure Mode</t>
+  </si>
+  <si>
+    <t>MILL Failure Mode</t>
+  </si>
+  <si>
+    <t>PUMP Failure Mode</t>
+  </si>
+  <si>
+    <t>UG_CONVEYOR Failure Mode</t>
+  </si>
+  <si>
+    <t>FAN Failure Mode</t>
+  </si>
+  <si>
+    <t>HOIST Failure Mode</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
   <si>
     <t>High</t>
   </si>
   <si>
-    <t>Inspect brake pads monthly</t>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Planned Replacement</t>
+  </si>
+  <si>
+    <t>Condition Monitoring</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
@@ -401,13 +725,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,22 +747,1008 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" t="s">
+        <v>116</v>
+      </c>
+      <c r="F51" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data_templates/FMECA_Sample.xlsx
+++ b/data_templates/FMECA_Sample.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loictiemani/Desktop/MasterDataGovernance/Untitled/Master-Data-Governance-SAP/data_templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6D4C41-B84A-B246-80A7-803588318839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="78900" yWindow="2340" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -373,8 +379,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,13 +443,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -481,7 +495,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -515,6 +529,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -549,9 +564,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -724,14 +740,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -771,7 +797,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -791,7 +817,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -811,7 +837,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -831,7 +857,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -851,7 +877,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -871,7 +897,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -891,7 +917,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -911,7 +937,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -931,7 +957,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -951,7 +977,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -971,7 +997,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -991,7 +1017,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1011,7 +1037,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1031,7 +1057,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1051,7 +1077,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1071,7 +1097,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1091,7 +1117,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1111,7 +1137,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1131,7 +1157,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1151,7 +1177,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1171,7 +1197,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1191,7 +1217,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1211,7 +1237,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1231,7 +1257,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1251,7 +1277,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1271,7 +1297,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1291,7 +1317,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1311,7 +1337,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1331,7 +1357,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1351,7 +1377,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1371,7 +1397,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1391,7 +1417,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1411,7 +1437,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1431,7 +1457,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1451,7 +1477,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1471,7 +1497,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1491,7 +1517,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1511,7 +1537,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1531,7 +1557,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1551,7 +1577,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1571,7 +1597,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1591,7 +1617,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1611,7 +1637,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1631,7 +1657,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1651,7 +1677,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1671,7 +1697,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1691,7 +1717,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1711,7 +1737,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1731,7 +1757,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>55</v>
       </c>

--- a/data_templates/FMECA_Sample.xlsx
+++ b/data_templates/FMECA_Sample.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loictiemani/Desktop/MasterDataGovernance/Untitled/Master-Data-Governance-SAP/data_templates/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6D4C41-B84A-B246-80A7-803588318839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="78900" yWindow="2340" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -379,8 +373,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,21 +437,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -495,7 +481,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -529,7 +515,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -564,10 +549,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -740,24 +724,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,7 +751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -797,7 +771,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -817,7 +791,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -837,7 +811,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -857,7 +831,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -877,7 +851,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -897,7 +871,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -917,7 +891,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -937,7 +911,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -957,7 +931,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -977,7 +951,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -997,7 +971,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1017,7 +991,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1037,7 +1011,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1057,7 +1031,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1077,7 +1051,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1097,7 +1071,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1117,7 +1091,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1137,7 +1111,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1157,7 +1131,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1177,7 +1151,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1197,7 +1171,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1217,7 +1191,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1237,7 +1211,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1257,7 +1231,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1277,7 +1251,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1297,7 +1271,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1317,7 +1291,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1337,7 +1311,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1357,7 +1331,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1377,7 +1351,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1397,7 +1371,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1417,7 +1391,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1437,7 +1411,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1457,7 +1431,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1477,7 +1451,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1497,7 +1471,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1517,7 +1491,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1537,7 +1511,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1557,7 +1531,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1577,7 +1551,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1597,7 +1571,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1617,7 +1591,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1637,7 +1611,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1657,7 +1631,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1677,7 +1651,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1697,7 +1671,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1717,7 +1691,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1737,7 +1711,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1757,7 +1731,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>55</v>
       </c>

--- a/data_templates/FMECA_Sample.xlsx
+++ b/data_templates/FMECA_Sample.xlsx
@@ -352,19 +352,19 @@
     <t>HOIST Failure Mode</t>
   </si>
   <si>
+    <t>High</t>
+  </si>
+  <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>Critical</t>
   </si>
   <si>
+    <t>Condition Monitoring</t>
+  </si>
+  <si>
     <t>Planned Replacement</t>
-  </si>
-  <si>
-    <t>Condition Monitoring</t>
   </si>
   <si>
     <t>Low</t>
@@ -785,10 +785,10 @@
         <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -805,7 +805,7 @@
         <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
         <v>117</v>
@@ -822,13 +822,13 @@
         <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
         <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -845,7 +845,7 @@
         <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
         <v>117</v>
@@ -862,13 +862,13 @@
         <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -882,13 +882,13 @@
         <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -902,13 +902,13 @@
         <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
         <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -922,13 +922,13 @@
         <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
         <v>115</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -948,7 +948,7 @@
         <v>115</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -962,10 +962,10 @@
         <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F12" t="s">
         <v>117</v>
@@ -985,10 +985,10 @@
         <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1022,7 +1022,7 @@
         <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
         <v>116</v>
@@ -1048,7 +1048,7 @@
         <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1062,13 +1062,13 @@
         <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1082,13 +1082,13 @@
         <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1102,7 +1102,7 @@
         <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
         <v>115</v>
@@ -1122,10 +1122,10 @@
         <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F20" t="s">
         <v>117</v>
@@ -1148,7 +1148,7 @@
         <v>116</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1162,7 +1162,7 @@
         <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
         <v>115</v>
@@ -1182,13 +1182,13 @@
         <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E23" t="s">
         <v>116</v>
       </c>
       <c r="F23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1202,13 +1202,13 @@
         <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
         <v>115</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1222,10 +1222,10 @@
         <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
         <v>117</v>
@@ -1242,13 +1242,13 @@
         <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
         <v>115</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1262,7 +1262,7 @@
         <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
         <v>115</v>
@@ -1282,7 +1282,7 @@
         <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
         <v>116</v>
@@ -1302,13 +1302,13 @@
         <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>116</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1322,13 +1322,13 @@
         <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
         <v>116</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1342,10 +1342,10 @@
         <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F31" t="s">
         <v>117</v>
@@ -1362,13 +1362,13 @@
         <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
         <v>115</v>
       </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1382,7 +1382,7 @@
         <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
         <v>115</v>
@@ -1402,7 +1402,7 @@
         <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
         <v>115</v>
@@ -1422,13 +1422,13 @@
         <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
         <v>116</v>
       </c>
       <c r="F35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1442,10 +1442,10 @@
         <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F36" t="s">
         <v>117</v>
@@ -1462,7 +1462,7 @@
         <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
         <v>116</v>
@@ -1482,13 +1482,13 @@
         <v>111</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E38" t="s">
         <v>115</v>
       </c>
       <c r="F38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1505,7 +1505,7 @@
         <v>112</v>
       </c>
       <c r="E39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F39" t="s">
         <v>117</v>
@@ -1522,13 +1522,13 @@
         <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E40" t="s">
         <v>115</v>
       </c>
       <c r="F40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1542,13 +1542,13 @@
         <v>107</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1565,7 +1565,7 @@
         <v>114</v>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F42" t="s">
         <v>117</v>
@@ -1582,13 +1582,13 @@
         <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E43" t="s">
         <v>116</v>
       </c>
       <c r="F43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1602,13 +1602,13 @@
         <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
         <v>116</v>
       </c>
       <c r="F44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1625,7 +1625,7 @@
         <v>114</v>
       </c>
       <c r="E45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F45" t="s">
         <v>117</v>
@@ -1648,7 +1648,7 @@
         <v>115</v>
       </c>
       <c r="F46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1685,10 +1685,10 @@
         <v>112</v>
       </c>
       <c r="E48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1702,7 +1702,7 @@
         <v>111</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E49" t="s">
         <v>115</v>
@@ -1722,13 +1722,13 @@
         <v>110</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1748,7 +1748,7 @@
         <v>116</v>
       </c>
       <c r="F51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
